--- a/calc/doc/基本設計仕様書.xlsx
+++ b/calc/doc/基本設計仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\Calculator\calc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧表" sheetId="1" r:id="rId1"/>
@@ -607,6 +607,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,22 +626,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3269,7 +3269,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3280,11 +3280,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -3342,10 +3342,10 @@
     </row>
     <row r="8" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3353,31 +3353,31 @@
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
     </row>
